--- a/HRMS/MstSchoolRegistration_Copytbl.xlsx
+++ b/HRMS/MstSchoolRegistration_Copytbl.xlsx
@@ -365,12 +365,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -379,6 +373,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +686,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,1442 +700,1442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="D29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="D34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>35</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>36</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>37</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+      <c r="A43" s="4">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="A44" s="4">
         <v>40</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="D44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+      <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
+      <c r="A47" s="4">
         <v>43</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
+      <c r="A48" s="4">
         <v>44</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="D49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
+      <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="D50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+      <c r="A51" s="4">
         <v>47</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="D51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="4">
         <v>48</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="D52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="4">
         <v>49</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
+      <c r="A54" s="4">
         <v>50</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+      <c r="A55" s="4">
         <v>51</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6">
+      <c r="A56" s="4">
         <v>52</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6">
+      <c r="A57" s="4">
         <v>53</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="4">
         <v>54</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="D58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
+      <c r="A59" s="4">
         <v>55</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="D59" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="A60" s="4">
         <v>56</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="D60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="4">
         <v>57</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="D61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="4">
         <v>58</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="D62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="4">
         <v>59</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="D63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="A64" s="4">
         <v>60</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="D64" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="A65" s="4">
         <v>61</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D65" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="D65" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="4">
         <v>62</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="D66" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+      <c r="A67" s="4">
         <v>63</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="D67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+      <c r="A68" s="4">
         <v>64</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="D68" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
+      <c r="A69" s="4">
         <v>65</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="D69" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="A70" s="4">
         <v>66</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="D70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
+      <c r="A71" s="4">
         <v>67</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
+      <c r="A72" s="4">
         <v>68</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="D72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="4">
         <v>69</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
+      <c r="A74" s="4">
         <v>70</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
+      <c r="A75" s="4">
         <v>71</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
+      <c r="A76" s="4">
         <v>72</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
+      <c r="A77" s="4">
         <v>73</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
+      <c r="A78" s="4">
         <v>74</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+      <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+      <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+      <c r="A81" s="4">
         <v>77</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
+      <c r="A82" s="4">
         <v>78</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="A83" s="4">
         <v>79</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
+      <c r="A84" s="4">
         <v>80</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
+      <c r="A85" s="4">
         <v>81</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
+      <c r="A86" s="4">
         <v>82</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+      <c r="A87" s="4">
         <v>83</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
+      <c r="A88" s="4">
         <v>84</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+      <c r="A89" s="4">
         <v>85</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+      <c r="A90" s="4">
         <v>86</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+      <c r="A91" s="4">
         <v>87</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+      <c r="A92" s="4">
         <v>88</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
+      <c r="A93" s="4">
         <v>89</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="A94" s="4">
         <v>90</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+      <c r="A95" s="4">
         <v>91</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
+      <c r="A96" s="4">
         <v>92</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+      <c r="A97" s="4">
         <v>93</v>
       </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+      <c r="A98" s="4">
         <v>94</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+      <c r="A99" s="4">
         <v>95</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6">
+      <c r="A100" s="4">
         <v>96</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+      <c r="A101" s="4">
         <v>97</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+      <c r="A102" s="4">
         <v>98</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/HRMS/MstSchoolRegistration_Copytbl.xlsx
+++ b/HRMS/MstSchoolRegistration_Copytbl.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$102</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="160">
   <si>
     <t>Table Name -   MstSchoolRegistration_Copytbl</t>
   </si>
@@ -305,13 +308,202 @@
   </si>
   <si>
     <t>IsSchoolUrdu</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t>Take BoardCode as String.</t>
+  </si>
+  <si>
+    <t>Take RecognitionNo as String.</t>
+  </si>
+  <si>
+    <t>Take input as date</t>
+  </si>
+  <si>
+    <t>Take WardNoAndName as String.</t>
+  </si>
+  <si>
+    <t>Take HabitationToSchoolByAirInMeter   as Decimal</t>
+  </si>
+  <si>
+    <t>Take HabitationToSchoolByRoadInMeter   as Decimal</t>
+  </si>
+  <si>
+    <t>Take Financialyear as String.</t>
+  </si>
+  <si>
+    <t>Take UdiceCode as String.</t>
+  </si>
+  <si>
+    <t>Take SchoolNameEng as String.</t>
+  </si>
+  <si>
+    <t>Take SchoolNameHin as String.</t>
+  </si>
+  <si>
+    <t>Take EstablishmentYear as Int.</t>
+  </si>
+  <si>
+    <t>Take BoardId as Int.</t>
+  </si>
+  <si>
+    <t>Take SchooltypeId as Int.</t>
+  </si>
+  <si>
+    <t>Take SchoolCategoryId as Int.</t>
+  </si>
+  <si>
+    <t>Take SchoolSubCatDetailId as Int.</t>
+  </si>
+  <si>
+    <t>Take SchoolMgmtGroupId as Int.</t>
+  </si>
+  <si>
+    <t>Take SchoolMgmtGroupDetailId as Int.</t>
+  </si>
+  <si>
+    <t>Take SchoolMediumId as Int.</t>
+  </si>
+  <si>
+    <t>Take MinorityCommunityId as Int.</t>
+  </si>
+  <si>
+    <t>Take SchoolShiftId as Int.</t>
+  </si>
+  <si>
+    <t>Take SchoolStatusId as Int.</t>
+  </si>
+  <si>
+    <t>Take IsHostelAttachId as Int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DivisionId  (MstDivision) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Districtid  (MstDistrict) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get BlockId  (MstBlock) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get StateId  (MstState) in Numaric </t>
+  </si>
+  <si>
+    <t>Take ParliamentaryId as Int.</t>
+  </si>
+  <si>
+    <t>Take AssemblyId as Int.</t>
+  </si>
+  <si>
+    <t>Take LocationId as Int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get VillageId  (MstVillages) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get HabitationId  (MstHabitation) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get GramPanchayatId  (MstGramPanchayat) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get JilaPanchayatId  (MstJilaPanchayat) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get JanpadPanchayatId  (MstJanpadPanchayat) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get NagarPalikaId  (MstNagarNigam) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get NagarNigamId  (MstNagarPalika) in Numaric </t>
+  </si>
+  <si>
+    <t>Take AddressLine1 as String.</t>
+  </si>
+  <si>
+    <t>Take AddressLine2 as String.</t>
+  </si>
+  <si>
+    <t>Take Pincode as String.</t>
+  </si>
+  <si>
+    <t>Take InchargeTypeId as Int.</t>
+  </si>
+  <si>
+    <t>Take InchargeUniqueId as String.</t>
+  </si>
+  <si>
+    <t>Take InchargeName as String.</t>
+  </si>
+  <si>
+    <t>Take InchargeMobileNo as String.</t>
+  </si>
+  <si>
+    <t>Take InchargeEmailId as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get DesignationId  (MstDesignation) in Numaric </t>
+  </si>
+  <si>
+    <t>Take SchoolContactNo as String.</t>
+  </si>
+  <si>
+    <t>Take SchoolEmailId as String.</t>
+  </si>
+  <si>
+    <t>Take SchoolWebsite as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get BankId  (MstBank) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get IFCSCodeId  (MstIFCSCode) in Numaric </t>
+  </si>
+  <si>
+    <t>Take BankAcntNo as String.</t>
+  </si>
+  <si>
+    <t>Take Latitude as String.</t>
+  </si>
+  <si>
+    <t>Take Longitude as String.</t>
+  </si>
+  <si>
+    <t>Take BankTypeId as Int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get JSKId  (MstJSK) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get SankulId  (MstSchoolRegistration) in Numaric </t>
+  </si>
+  <si>
+    <t>Take SpecialSchoolId as Int.</t>
+  </si>
+  <si>
+    <t>Take IsSchoolUrdu as Int.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,13 +518,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -362,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,6 +583,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +906,7 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="66.85546875" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -763,7 +974,9 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -794,7 +1007,9 @@
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -811,7 +1026,9 @@
         <v>14</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -827,7 +1044,9 @@
         <v>21</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -843,7 +1062,9 @@
         <v>21</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -859,7 +1080,9 @@
         <v>21</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -875,7 +1098,9 @@
         <v>21</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -891,7 +1116,9 @@
         <v>14</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -907,7 +1134,9 @@
         <v>14</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -923,7 +1152,9 @@
         <v>14</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -939,7 +1170,9 @@
         <v>14</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -955,7 +1188,9 @@
         <v>21</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -971,7 +1206,9 @@
         <v>21</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -987,7 +1224,9 @@
         <v>21</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1003,7 +1242,9 @@
         <v>21</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1019,7 +1260,9 @@
         <v>21</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1035,13 +1278,15 @@
         <v>21</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1051,13 +1296,15 @@
         <v>14</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1067,13 +1314,15 @@
         <v>14</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1083,13 +1332,15 @@
         <v>14</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1099,7 +1350,9 @@
         <v>14</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1115,7 +1368,9 @@
         <v>21</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1131,7 +1386,9 @@
         <v>21</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1147,13 +1404,15 @@
         <v>21</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="8" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1163,13 +1422,15 @@
         <v>21</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="8" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1179,13 +1440,15 @@
         <v>21</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="8" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1195,13 +1458,15 @@
         <v>21</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1211,13 +1476,15 @@
         <v>21</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1227,13 +1494,15 @@
         <v>21</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1243,13 +1512,15 @@
         <v>21</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1259,7 +1530,9 @@
         <v>21</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -1275,7 +1548,9 @@
         <v>21</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="8" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -1291,7 +1566,9 @@
         <v>21</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="8" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -1307,7 +1584,9 @@
         <v>21</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -1323,7 +1602,9 @@
         <v>21</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="8" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -1339,7 +1620,9 @@
         <v>21</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -1355,7 +1638,9 @@
         <v>21</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="F42" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -1371,7 +1656,9 @@
         <v>21</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -1387,13 +1674,15 @@
         <v>21</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1403,7 +1692,9 @@
         <v>21</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -1419,7 +1710,9 @@
         <v>21</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="F46" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -1435,7 +1728,9 @@
         <v>21</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="F47" s="8" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -1451,13 +1746,15 @@
         <v>21</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
+      <c r="F48" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -1467,13 +1764,15 @@
         <v>21</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
+      <c r="F49" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -1483,7 +1782,9 @@
         <v>21</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -1499,7 +1800,9 @@
         <v>21</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="F51" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -1515,7 +1818,9 @@
         <v>21</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
+      <c r="F52" s="8" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -1531,7 +1836,9 @@
         <v>21</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
+      <c r="F53" s="8" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -1547,7 +1854,9 @@
         <v>14</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
+      <c r="F54" s="8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -1563,7 +1872,9 @@
         <v>14</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="F55" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
@@ -1579,7 +1890,9 @@
         <v>14</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -1595,7 +1908,9 @@
         <v>14</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -1611,7 +1926,9 @@
         <v>21</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="F58" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -1627,7 +1944,9 @@
         <v>21</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="F59" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -1643,7 +1962,9 @@
         <v>21</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="F60" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -1659,7 +1980,9 @@
         <v>21</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="8" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -1675,7 +1998,9 @@
         <v>21</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="F62" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -1691,7 +2016,9 @@
         <v>21</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -1707,7 +2034,9 @@
         <v>21</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="F64" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -1723,7 +2052,9 @@
         <v>21</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="F65" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -1739,7 +2070,9 @@
         <v>21</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="F66" s="8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -1755,13 +2088,15 @@
         <v>21</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
+      <c r="F67" s="8" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>64</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -1771,13 +2106,15 @@
         <v>21</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="F68" s="8" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>65</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -1787,7 +2124,9 @@
         <v>21</v>
       </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="F69" s="8" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -1803,7 +2142,9 @@
         <v>21</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
+      <c r="F70" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -1819,7 +2160,9 @@
         <v>14</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
+      <c r="F71" s="8" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -1835,7 +2178,9 @@
         <v>21</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
+      <c r="F72" s="8" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
@@ -2138,6 +2483,7 @@
       <c r="F102" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F102"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>

--- a/HRMS/MstSchoolRegistration_Copytbl.xlsx
+++ b/HRMS/MstSchoolRegistration_Copytbl.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="161">
   <si>
     <t>Table Name -   MstSchoolRegistration_Copytbl</t>
   </si>
@@ -497,13 +497,16 @@
   </si>
   <si>
     <t>Take IsSchoolUrdu as Int.</t>
+  </si>
+  <si>
+    <t>Note : The Colored column  denoted as dependent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +526,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -566,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,12 +588,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -590,6 +595,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,32 +925,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -974,7 +988,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1007,7 +1021,7 @@
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>109</v>
       </c>
       <c r="J7" s="5"/>
@@ -1026,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1044,7 +1058,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1062,7 +1076,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1080,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1098,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1116,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1134,7 +1148,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1152,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1170,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1188,7 +1202,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1206,7 +1220,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1224,7 +1238,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1242,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1260,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1278,7 +1292,7 @@
         <v>21</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1286,7 +1300,7 @@
       <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1296,7 +1310,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1304,7 +1318,7 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1314,7 +1328,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1322,7 +1336,7 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1332,7 +1346,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1340,7 +1354,7 @@
       <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1350,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1368,7 +1382,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1386,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1404,7 +1418,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1412,7 +1426,7 @@
       <c r="A30" s="4">
         <v>26</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1422,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1430,7 +1444,7 @@
       <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1440,7 +1454,7 @@
         <v>21</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1448,7 +1462,7 @@
       <c r="A32" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1458,7 +1472,7 @@
         <v>21</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1466,7 +1480,7 @@
       <c r="A33" s="4">
         <v>29</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1476,7 +1490,7 @@
         <v>21</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1484,7 +1498,7 @@
       <c r="A34" s="4">
         <v>30</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1494,7 +1508,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1502,7 +1516,7 @@
       <c r="A35" s="4">
         <v>31</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1512,7 +1526,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1520,7 +1534,7 @@
       <c r="A36" s="4">
         <v>32</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1530,7 +1544,7 @@
         <v>21</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1548,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1566,7 +1580,7 @@
         <v>21</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1584,7 +1598,7 @@
         <v>21</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1602,7 +1616,7 @@
         <v>21</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1620,7 +1634,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1638,7 +1652,7 @@
         <v>21</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1656,7 +1670,7 @@
         <v>21</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1674,7 +1688,7 @@
         <v>21</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1682,7 +1696,7 @@
       <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1692,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1710,7 +1724,7 @@
         <v>21</v>
       </c>
       <c r="E46" s="5"/>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1728,7 +1742,7 @@
         <v>21</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1746,7 +1760,7 @@
         <v>21</v>
       </c>
       <c r="E48" s="5"/>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="6" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1754,7 +1768,7 @@
       <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -1764,7 +1778,7 @@
         <v>21</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1772,7 +1786,7 @@
       <c r="A50" s="4">
         <v>46</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -1782,7 +1796,7 @@
         <v>21</v>
       </c>
       <c r="E50" s="5"/>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1800,7 +1814,7 @@
         <v>21</v>
       </c>
       <c r="E51" s="5"/>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1818,7 +1832,7 @@
         <v>21</v>
       </c>
       <c r="E52" s="5"/>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1836,7 +1850,7 @@
         <v>21</v>
       </c>
       <c r="E53" s="5"/>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1854,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="E54" s="5"/>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1872,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="E55" s="5"/>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1890,7 +1904,7 @@
         <v>14</v>
       </c>
       <c r="E56" s="5"/>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1908,7 +1922,7 @@
         <v>14</v>
       </c>
       <c r="E57" s="5"/>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1926,7 +1940,7 @@
         <v>21</v>
       </c>
       <c r="E58" s="5"/>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1944,7 +1958,7 @@
         <v>21</v>
       </c>
       <c r="E59" s="5"/>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1962,7 +1976,7 @@
         <v>21</v>
       </c>
       <c r="E60" s="5"/>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1980,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1998,7 +2012,7 @@
         <v>21</v>
       </c>
       <c r="E62" s="5"/>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2016,7 +2030,7 @@
         <v>21</v>
       </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2034,7 +2048,7 @@
         <v>21</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2052,7 +2066,7 @@
         <v>21</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="6" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2070,7 +2084,7 @@
         <v>21</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2088,7 +2102,7 @@
         <v>21</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2096,7 +2110,7 @@
       <c r="A68" s="4">
         <v>64</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -2106,7 +2120,7 @@
         <v>21</v>
       </c>
       <c r="E68" s="5"/>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2114,7 +2128,7 @@
       <c r="A69" s="4">
         <v>65</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -2124,7 +2138,7 @@
         <v>21</v>
       </c>
       <c r="E69" s="5"/>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2142,7 +2156,7 @@
         <v>21</v>
       </c>
       <c r="E70" s="5"/>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2160,7 +2174,7 @@
         <v>14</v>
       </c>
       <c r="E71" s="5"/>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2178,19 +2192,19 @@
         <v>21</v>
       </c>
       <c r="E72" s="5"/>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>69</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="A73" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
@@ -2484,9 +2498,10 @@
     </row>
   </sheetData>
   <autoFilter ref="F1:F102"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A73:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HRMS/MstSchoolRegistration_Copytbl.xlsx
+++ b/HRMS/MstSchoolRegistration_Copytbl.xlsx
@@ -22,9 +22,6 @@
     <t>Table Name -   MstSchoolRegistration_Copytbl</t>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -500,6 +497,9 @@
   </si>
   <si>
     <t>Note : The Colored column  denoted as dependent Table</t>
+  </si>
+  <si>
+    <t>Defination : इस तालिका में स्कूल पंजीकरण का विवरण  है</t>
   </si>
 </sst>
 </file>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +936,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -954,22 +954,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -977,19 +977,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -997,13 +997,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="5"/>
       <c r="J6" s="5"/>
@@ -1013,16 +1013,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -1031,17 +1031,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1049,17 +1049,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,17 +1067,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1085,17 +1085,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1103,17 +1103,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1121,17 +1121,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,17 +1139,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1157,17 +1157,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1175,17 +1175,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,17 +1193,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,17 +1211,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1229,17 +1229,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,17 +1247,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1265,17 +1265,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,17 +1283,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1301,17 +1301,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,17 +1319,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1337,17 +1337,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,17 +1355,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1373,17 +1373,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,17 +1391,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1409,17 +1409,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,17 +1427,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1445,17 +1445,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,17 +1463,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,17 +1481,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,17 +1499,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1517,17 +1517,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,17 +1535,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,17 +1553,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,17 +1571,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,17 +1589,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="D39" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,17 +1607,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1625,17 +1625,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D41" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,17 +1643,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D42" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,17 +1661,17 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,17 +1679,17 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1697,17 +1697,17 @@
         <v>41</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,17 +1715,17 @@
         <v>42</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,17 +1733,17 @@
         <v>43</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,17 +1751,17 @@
         <v>44</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,17 +1769,17 @@
         <v>45</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,17 +1787,17 @@
         <v>46</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,17 +1805,17 @@
         <v>47</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="D51" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,17 +1823,17 @@
         <v>48</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="D52" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,17 +1841,17 @@
         <v>49</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,17 +1859,17 @@
         <v>50</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="D54" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,17 +1877,17 @@
         <v>51</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,17 +1895,17 @@
         <v>52</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D56" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,17 +1913,17 @@
         <v>53</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,17 +1931,17 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,17 +1949,17 @@
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,17 +1967,17 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,17 +1985,17 @@
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,17 +2003,17 @@
         <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2021,17 +2021,17 @@
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,17 +2039,17 @@
         <v>60</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,17 +2057,17 @@
         <v>61</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="D65" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,17 +2075,17 @@
         <v>62</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,17 +2093,17 @@
         <v>63</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,17 +2111,17 @@
         <v>64</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,17 +2129,17 @@
         <v>65</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,17 +2147,17 @@
         <v>66</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2165,17 +2165,17 @@
         <v>67</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="D71" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,22 +2183,22 @@
         <v>68</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
